--- a/output/instance_SMALL_scenario_2/master_variables_site1.xlsx
+++ b/output/instance_SMALL_scenario_2/master_variables_site1.xlsx
@@ -618,7 +618,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -934,7 +934,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1034,7 +1034,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1094,7 +1094,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
